--- a/sources/Soninke_data.xlsx
+++ b/sources/Soninke_data.xlsx
@@ -2515,7 +2515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2536,7 +2536,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,32 +2841,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L124"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="46" style="9" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="4.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="46" style="8" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="8" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
@@ -2966,15 +2965,15 @@
       <c r="L2" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>539</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -3013,15 +3012,15 @@
       <c r="L3" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>542</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="3" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -3060,15 +3059,15 @@
       <c r="L4" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>545</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="9" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -3152,13 +3151,13 @@
       <c r="L6" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3186,20 +3185,20 @@
         <v>549</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="10" t="s">
-        <v>551</v>
-      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="9" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3238,15 +3237,15 @@
       <c r="L8" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>553</v>
-      </c>
+      <c r="M8" s="9"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -3369,15 +3368,15 @@
         <v>550</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="7" t="s">
-        <v>556</v>
-      </c>
+      <c r="M11" s="7"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="7" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3410,15 +3409,15 @@
         <v>550</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3502,15 +3501,15 @@
       <c r="L14" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>561</v>
-      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="S14" s="5" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3555,7 +3554,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3600,7 +3599,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3684,15 +3683,15 @@
       <c r="L18" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>567</v>
-      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -3725,15 +3724,15 @@
         <v>550</v>
       </c>
       <c r="L19" s="5"/>
-      <c r="M19" s="7" t="s">
-        <v>568</v>
-      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3778,7 +3777,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3868,7 +3867,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3946,15 +3945,15 @@
         <v>550</v>
       </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3978,7 +3977,7 @@
       <c r="G25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>550</v>
       </c>
       <c r="I25" s="5"/>
@@ -3987,15 +3986,15 @@
         <v>550</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="14" t="s">
-        <v>574</v>
-      </c>
+      <c r="M25" s="13"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="13" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -4034,13 +4033,13 @@
       <c r="L26" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -4220,7 +4219,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4244,24 +4243,24 @@
       <c r="G31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="7" t="s">
-        <v>580</v>
-      </c>
+      <c r="M31" s="7"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4345,15 +4344,15 @@
       <c r="L33" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>583</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4392,15 +4391,15 @@
       <c r="L34" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>584</v>
-      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="5" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -4514,7 +4513,7 @@
       <c r="G37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>587</v>
       </c>
       <c r="I37" s="5" t="s">
@@ -4619,15 +4618,15 @@
       <c r="L39" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M39" s="7" t="s">
-        <v>591</v>
-      </c>
+      <c r="M39" s="7"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="7" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4651,7 +4650,7 @@
       <c r="G40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>592</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -4696,7 +4695,7 @@
       <c r="G41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>593</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -4741,7 +4740,7 @@
       <c r="G42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>594</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -4790,20 +4789,20 @@
         <v>595</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="10" t="s">
-        <v>596</v>
-      </c>
+      <c r="M43" s="9"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="9" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4827,7 +4826,7 @@
       <c r="G44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>597</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -4842,15 +4841,15 @@
       <c r="L44" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4874,7 +4873,7 @@
       <c r="G45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -4889,15 +4888,15 @@
       <c r="L45" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4981,15 +4980,15 @@
       <c r="L47" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -5028,15 +5027,15 @@
       <c r="L48" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -5060,24 +5059,24 @@
       <c r="G49" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="7" t="s">
-        <v>605</v>
-      </c>
+      <c r="M49" s="7"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="7" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -5200,15 +5199,15 @@
         <v>550</v>
       </c>
       <c r="L52" s="5"/>
-      <c r="M52" s="7" t="s">
-        <v>608</v>
-      </c>
+      <c r="M52" s="7"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="7" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5241,15 +5240,15 @@
         <v>550</v>
       </c>
       <c r="L53" s="5"/>
-      <c r="M53" s="7" t="s">
-        <v>609</v>
-      </c>
+      <c r="M53" s="7"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="7" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -5288,15 +5287,15 @@
       <c r="L54" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M54" s="10" t="s">
-        <v>611</v>
-      </c>
+      <c r="M54" s="9"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="9" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -5320,7 +5319,7 @@
       <c r="G55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>612</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -5335,15 +5334,15 @@
       <c r="L55" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5547,24 +5546,24 @@
       <c r="G60" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="12"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L60" s="5"/>
-      <c r="M60" s="14" t="s">
-        <v>619</v>
-      </c>
+      <c r="M60" s="13"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="13" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5648,13 +5647,13 @@
       <c r="L62" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M62" s="13"/>
+      <c r="M62" s="12"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5723,7 +5722,7 @@
       <c r="G64" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>623</v>
       </c>
       <c r="I64" s="5" t="s">
@@ -5768,7 +5767,7 @@
       <c r="G65" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I65" s="5"/>
@@ -5777,15 +5776,15 @@
         <v>550</v>
       </c>
       <c r="L65" s="5"/>
-      <c r="M65" s="7" t="s">
-        <v>624</v>
-      </c>
+      <c r="M65" s="7"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="7" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5824,13 +5823,13 @@
       <c r="L66" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M66" s="12"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="11"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5899,7 +5898,7 @@
       <c r="G68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I68" s="5"/>
@@ -5908,15 +5907,15 @@
         <v>550</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="14" t="s">
-        <v>627</v>
-      </c>
+      <c r="M68" s="13"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="13" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5985,7 +5984,7 @@
       <c r="G70" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>629</v>
       </c>
       <c r="I70" s="5" t="s">
@@ -6030,7 +6029,7 @@
       <c r="G71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="9" t="s">
         <v>630</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -6174,15 +6173,15 @@
         <v>550</v>
       </c>
       <c r="L74" s="5"/>
-      <c r="M74" s="5" t="s">
-        <v>634</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -6305,15 +6304,15 @@
         <v>550</v>
       </c>
       <c r="L77" s="5"/>
-      <c r="M77" s="15" t="s">
-        <v>719</v>
-      </c>
+      <c r="M77" s="14"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="14" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6442,15 +6441,15 @@
       <c r="L80" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6480,7 +6479,7 @@
       <c r="I81" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="11" t="s">
         <v>641</v>
       </c>
       <c r="K81" s="5" t="s">
@@ -6489,15 +6488,15 @@
       <c r="L81" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6575,15 +6574,15 @@
         <v>550</v>
       </c>
       <c r="L83" s="5"/>
-      <c r="M83" s="14" t="s">
-        <v>644</v>
-      </c>
+      <c r="M83" s="13"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="13" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6667,15 +6666,15 @@
       <c r="L85" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>647</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6714,15 +6713,15 @@
       <c r="L86" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M86" s="10" t="s">
-        <v>649</v>
-      </c>
+      <c r="M86" s="9"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="9" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6836,7 +6835,7 @@
       <c r="G89" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I89" s="5"/>
@@ -6845,15 +6844,15 @@
         <v>550</v>
       </c>
       <c r="L89" s="5"/>
-      <c r="M89" s="7" t="s">
-        <v>652</v>
-      </c>
+      <c r="M89" s="7"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="7" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6982,15 +6981,15 @@
       <c r="L92" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>656</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -7029,15 +7028,15 @@
       <c r="L93" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -7115,15 +7114,15 @@
         <v>550</v>
       </c>
       <c r="L95" s="5"/>
-      <c r="M95" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -7207,15 +7206,15 @@
       <c r="L97" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M97" s="10" t="s">
-        <v>663</v>
-      </c>
+      <c r="M97" s="9"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="9" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -7338,15 +7337,15 @@
         <v>550</v>
       </c>
       <c r="L100" s="5"/>
-      <c r="M100" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7370,24 +7369,24 @@
       <c r="G101" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="11" t="s">
         <v>550</v>
       </c>
       <c r="I101" s="5"/>
-      <c r="J101" s="12"/>
+      <c r="J101" s="11"/>
       <c r="K101" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L101" s="5"/>
-      <c r="M101" s="7" t="s">
-        <v>668</v>
-      </c>
+      <c r="M101" s="7"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7426,15 +7425,15 @@
       <c r="L102" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M102" s="10" t="s">
-        <v>669</v>
-      </c>
+      <c r="M102" s="9"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="9" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7503,7 +7502,7 @@
       <c r="G104" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H104" s="9" t="s">
         <v>671</v>
       </c>
       <c r="I104" s="5"/>
@@ -7512,15 +7511,15 @@
         <v>550</v>
       </c>
       <c r="L104" s="5"/>
-      <c r="M104" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7694,13 +7693,13 @@
       <c r="L108" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M108" s="13"/>
+      <c r="M108" s="12"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="12"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7784,15 +7783,15 @@
       <c r="L110" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7837,7 +7836,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7876,13 +7875,13 @@
       <c r="L112" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M112" s="13"/>
+      <c r="M112" s="12"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="12"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7921,15 +7920,15 @@
       <c r="L113" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M113" s="10" t="s">
-        <v>683</v>
-      </c>
+      <c r="M113" s="9"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="9" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7968,15 +7967,15 @@
       <c r="L114" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -8015,15 +8014,15 @@
       <c r="L115" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M115" s="10" t="s">
-        <v>686</v>
-      </c>
+      <c r="M115" s="9"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="9" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -8062,13 +8061,13 @@
       <c r="L116" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M116" s="13"/>
+      <c r="M116" s="12"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="12"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -8107,15 +8106,15 @@
       <c r="L117" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M117" s="5" t="s">
-        <v>689</v>
-      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8154,15 +8153,15 @@
       <c r="L118" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8201,15 +8200,15 @@
       <c r="L119" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M119" s="15" t="s">
-        <v>694</v>
-      </c>
+      <c r="M119" s="14"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="14" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -8248,13 +8247,13 @@
       <c r="L120" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M120" s="16"/>
+      <c r="M120" s="15"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="15"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8293,15 +8292,15 @@
       <c r="L121" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M121" s="15" t="s">
-        <v>697</v>
-      </c>
+      <c r="M121" s="14"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="14" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8385,15 +8384,15 @@
       <c r="L123" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8426,15 +8425,15 @@
         <v>550</v>
       </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="14" t="s">
-        <v>700</v>
-      </c>
+      <c r="M124" s="13"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="13" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8473,15 +8472,15 @@
       <c r="L125" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M125" s="15" t="s">
-        <v>702</v>
-      </c>
+      <c r="M125" s="14"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="14" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8520,15 +8519,15 @@
       <c r="L126" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M126" s="17" t="s">
-        <v>703</v>
-      </c>
+      <c r="M126" s="16"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="16" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8612,15 +8611,15 @@
       <c r="L128" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8659,15 +8658,15 @@
       <c r="L129" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8706,15 +8705,15 @@
       <c r="L130" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">

--- a/sources/Soninke_data.xlsx
+++ b/sources/Soninke_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="720">
   <si>
     <t>language_no</t>
   </si>
@@ -1635,12 +1635,6 @@
     <t>wàtú</t>
   </si>
   <si>
-    <t>POSS&amp;OBJ</t>
-  </si>
-  <si>
-    <t>SUBJ</t>
-  </si>
-  <si>
     <t>Literally: ‘X’s Y hurts him/her</t>
   </si>
   <si>
@@ -1654,9 +1648,6 @@
   </si>
   <si>
     <t>kànú</t>
-  </si>
-  <si>
-    <t>yì/yí</t>
   </si>
   <si>
     <t>the causative form kànùndí ‘frighten’ occurs in a transitive construction in which the subject represents the stimulus</t>
@@ -1746,9 +1737,6 @@
     <t>kò/kó</t>
   </si>
   <si>
-    <t>dà/dá</t>
-  </si>
-  <si>
     <t>Kò/kó is a regular transitive verb, but the object slot is occupied by the 3rd person pronoun à representing the quotation (Z), and the addressee is encoded as an oblique (dà/dá is a postposition)</t>
   </si>
   <si>
@@ -1842,9 +1830,6 @@
     <t>wá</t>
   </si>
   <si>
-    <t>màxá</t>
-  </si>
-  <si>
     <t>Soninke expresses predicative possession as literally ‘Possessee is at possessor’ (with the possessee encoded as the subject of the locational copula wá, and the possessor encoded as an oblique marked by the postposition màxá)</t>
   </si>
   <si>
@@ -1986,21 +1971,6 @@
     <t xml:space="preserve">línŋí </t>
   </si>
   <si>
-    <r>
-      <t>dà/dá</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Can only be expressed periphrastically as lit. ‘X’s need is in Y’</t>
   </si>
   <si>
@@ -2091,9 +2061,6 @@
     <t>kútú</t>
   </si>
   <si>
-    <t xml:space="preserve">tì/tí_yì/yí </t>
-  </si>
-  <si>
     <t>In this case, both ti (prep.) &amp; yi (post.) attach to Y in the sense that [tì/tí Y yì/yí] is a constituent (adpositional phrase), but they are not affixes. Arguably, the internal structure of this constituent is [tì/tí [Y yì/yí]]</t>
   </si>
   <si>
@@ -2313,9 +2280,6 @@
     <t xml:space="preserve">bútú </t>
   </si>
   <si>
-    <t>wùré</t>
-  </si>
-  <si>
     <t>Same verb and construction as in 122, 128</t>
   </si>
   <si>
@@ -2368,33 +2332,6 @@
   </si>
   <si>
     <t xml:space="preserve">yàagú </t>
-  </si>
-  <si>
-    <t>POSS&amp;OBJ_SUBJ</t>
-  </si>
-  <si>
-    <t>OBJ_SUBJ</t>
-  </si>
-  <si>
-    <t>SUBJ_yi</t>
-  </si>
-  <si>
-    <t>SUBJ_da</t>
-  </si>
-  <si>
-    <t>maxa_SUBJ</t>
-  </si>
-  <si>
-    <t>yi_SUBJ</t>
-  </si>
-  <si>
-    <t>da_SUBJ</t>
-  </si>
-  <si>
-    <t>SUBJ_ti_yi</t>
-  </si>
-  <si>
-    <t>SUBJ_wure</t>
   </si>
   <si>
     <r>
@@ -2425,6 +2362,54 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>OBJ_SBJ</t>
+  </si>
+  <si>
+    <t>SBJ_yi</t>
+  </si>
+  <si>
+    <t>SBJ_da</t>
+  </si>
+  <si>
+    <t>maxa_SBJ</t>
+  </si>
+  <si>
+    <t>yi_SBJ</t>
+  </si>
+  <si>
+    <t>da_SBJ</t>
+  </si>
+  <si>
+    <t>SBJ_wure</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>maxa</t>
+  </si>
+  <si>
+    <t>POSS.OBJ</t>
+  </si>
+  <si>
+    <t>POSS.OBJ_SBJ</t>
+  </si>
+  <si>
+    <t>SBJ_ti.yi</t>
+  </si>
+  <si>
+    <t>ti.yi</t>
+  </si>
+  <si>
+    <t>wure</t>
+  </si>
+  <si>
+    <t>yi</t>
   </si>
 </sst>
 </file>
@@ -2841,9 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2954,16 +2937,16 @@
         <v>536</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>537</v>
+        <v>714</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2972,7 +2955,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -2998,19 +2981,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
@@ -3019,7 +3002,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -3045,19 +3028,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="5"/>
@@ -3066,7 +3049,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -3092,19 +3075,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -3137,19 +3120,19 @@
         <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="5"/>
@@ -3182,12 +3165,16 @@
         <v>42</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
+        <v>546</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K7" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="9"/>
@@ -3197,7 +3184,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -3223,19 +3210,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="5"/>
@@ -3244,7 +3231,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -3270,19 +3257,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3315,19 +3302,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3360,12 +3347,16 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K11" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="7"/>
@@ -3375,7 +3366,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -3401,12 +3392,16 @@
         <v>62</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+        <v>554</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -3416,7 +3411,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -3442,19 +3437,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3487,19 +3482,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3508,7 +3503,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -3534,19 +3529,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3579,19 +3574,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3624,19 +3619,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3669,19 +3664,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="5"/>
@@ -3690,7 +3685,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -3716,12 +3711,16 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="7"/>
@@ -3731,7 +3730,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -3757,19 +3756,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3802,19 +3801,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3847,19 +3846,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3892,19 +3891,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3937,12 +3936,16 @@
         <v>110</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+        <v>569</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K24" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3952,7 +3955,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -3978,12 +3981,16 @@
         <v>114</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K25" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="13"/>
@@ -3993,7 +4000,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -4019,19 +4026,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="5"/>
@@ -4064,19 +4071,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -4109,19 +4116,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -4154,19 +4161,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4199,19 +4206,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4244,12 +4251,16 @@
         <v>138</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="11"/>
+        <v>547</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K31" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="7"/>
@@ -4259,7 +4270,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -4285,19 +4296,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4330,19 +4341,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4351,7 +4362,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -4377,19 +4388,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4398,7 +4409,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
@@ -4424,19 +4435,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4469,19 +4480,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4514,19 +4525,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4559,19 +4570,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4604,19 +4615,19 @@
         <v>169</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>590</v>
+        <v>713</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="5"/>
@@ -4625,7 +4636,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -4651,19 +4662,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4696,19 +4707,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4741,19 +4752,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4786,12 +4797,16 @@
         <v>185</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="11"/>
+        <v>590</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K43" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9"/>
@@ -4801,7 +4816,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
@@ -4827,19 +4842,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4848,7 +4863,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
@@ -4874,19 +4889,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4895,7 +4910,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
@@ -4921,19 +4936,19 @@
         <v>197</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4966,19 +4981,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4987,7 +5002,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -5013,19 +5028,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -5034,7 +5049,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
@@ -5060,12 +5075,16 @@
         <v>209</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="11"/>
+        <v>547</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K49" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
@@ -5075,7 +5094,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
@@ -5101,19 +5120,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5146,19 +5165,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -5191,12 +5210,16 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K52" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
@@ -5206,7 +5229,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
@@ -5232,12 +5255,16 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
@@ -5247,7 +5274,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -5273,19 +5300,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="5"/>
@@ -5294,7 +5321,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
@@ -5320,19 +5347,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5341,7 +5368,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="5" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
@@ -5367,19 +5394,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5412,19 +5439,19 @@
         <v>241</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5457,19 +5484,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5502,19 +5529,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>618</v>
+        <v>712</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5547,12 +5574,16 @@
         <v>253</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="11"/>
+        <v>547</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K60" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="13"/>
@@ -5562,7 +5593,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="13" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
@@ -5588,19 +5619,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5633,19 +5664,19 @@
         <v>261</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>590</v>
+        <v>713</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="5"/>
@@ -5678,19 +5709,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5723,19 +5754,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5768,12 +5799,16 @@
         <v>273</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K65" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="7"/>
@@ -5783,7 +5818,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
@@ -5809,19 +5844,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="5"/>
@@ -5854,19 +5889,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5899,12 +5934,16 @@
         <v>285</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K68" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="13"/>
@@ -5914,7 +5953,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="13" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
@@ -5940,19 +5979,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5985,19 +6024,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -6030,19 +6069,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -6075,19 +6114,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -6120,19 +6159,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -6165,12 +6204,16 @@
         <v>309</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+        <v>627</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K74" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -6180,7 +6223,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
@@ -6206,19 +6249,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -6251,19 +6294,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -6296,12 +6339,16 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="14"/>
@@ -6311,7 +6358,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="14" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
@@ -6337,19 +6384,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6382,19 +6429,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6427,19 +6474,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6448,7 +6495,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
@@ -6474,19 +6521,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6495,7 +6542,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="5" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
@@ -6521,19 +6568,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6566,12 +6613,16 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K83" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="13"/>
@@ -6581,7 +6632,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="13" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
@@ -6607,19 +6658,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6652,19 +6703,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>618</v>
+        <v>712</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6673,7 +6724,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
@@ -6699,19 +6750,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="5"/>
@@ -6720,7 +6771,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="9" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -6746,19 +6797,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6791,19 +6842,19 @@
         <v>365</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6836,12 +6887,16 @@
         <v>369</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K89" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="7"/>
@@ -6851,7 +6906,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
@@ -6877,19 +6932,19 @@
         <v>373</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6922,19 +6977,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6967,19 +7022,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -6988,7 +7043,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
@@ -7014,19 +7069,19 @@
         <v>385</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -7035,7 +7090,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
@@ -7061,19 +7116,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7106,12 +7161,16 @@
         <v>393</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+        <v>653</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K95" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -7121,7 +7180,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
@@ -7147,19 +7206,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7192,19 +7251,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="5"/>
@@ -7213,7 +7272,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="9" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
@@ -7239,19 +7298,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7284,19 +7343,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7329,12 +7388,16 @@
         <v>413</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+        <v>659</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K100" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -7344,7 +7407,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
@@ -7370,12 +7433,16 @@
         <v>417</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="11"/>
+        <v>547</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K101" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L101" s="5"/>
       <c r="M101" s="7"/>
@@ -7385,7 +7452,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -7411,19 +7478,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="5"/>
@@ -7432,7 +7499,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="9" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -7458,19 +7525,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7503,12 +7570,16 @@
         <v>428</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+        <v>664</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -7518,7 +7589,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -7544,19 +7615,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7589,19 +7660,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7634,19 +7705,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7679,19 +7750,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M108" s="12"/>
       <c r="N108" s="5"/>
@@ -7724,19 +7795,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7769,19 +7840,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7790,7 +7861,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -7816,19 +7887,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7861,19 +7932,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M112" s="12"/>
       <c r="N112" s="5"/>
@@ -7906,19 +7977,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="5"/>
@@ -7927,7 +7998,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="9" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
@@ -7953,19 +8024,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7974,7 +8045,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
@@ -8000,19 +8071,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="5"/>
@@ -8021,7 +8092,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="9" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
@@ -8047,19 +8118,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M116" s="12"/>
       <c r="N116" s="5"/>
@@ -8092,19 +8163,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -8113,7 +8184,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
@@ -8139,19 +8210,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -8160,7 +8231,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
@@ -8186,19 +8257,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M119" s="14"/>
       <c r="N119" s="5"/>
@@ -8207,7 +8278,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="14" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
@@ -8233,19 +8304,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M120" s="15"/>
       <c r="N120" s="5"/>
@@ -8278,19 +8349,19 @@
         <v>494</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M121" s="14"/>
       <c r="N121" s="5"/>
@@ -8299,7 +8370,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="14" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
@@ -8325,19 +8396,19 @@
         <v>498</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8370,19 +8441,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8391,7 +8462,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
@@ -8417,12 +8488,16 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="K124" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="13"/>
@@ -8432,7 +8507,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="13" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
@@ -8458,19 +8533,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M125" s="14"/>
       <c r="N125" s="5"/>
@@ -8479,7 +8554,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="14" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
@@ -8505,19 +8580,19 @@
         <v>514</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M126" s="16"/>
       <c r="N126" s="5"/>
@@ -8526,7 +8601,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="16" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
@@ -8552,19 +8627,19 @@
         <v>518</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8597,19 +8672,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8618,7 +8693,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
@@ -8644,19 +8719,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8665,7 +8740,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
@@ -8691,19 +8766,19 @@
         <v>530</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8712,7 +8787,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
@@ -8738,19 +8813,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
